--- a/yday_accumulate/測站_ID.xlsx
+++ b/yday_accumulate/測站_ID.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>基隆</t>
   </si>
@@ -169,6 +169,74 @@
   </si>
   <si>
     <t>測站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三和(C0A930)</t>
+  </si>
+  <si>
+    <t>坪林(C0A530)</t>
+  </si>
+  <si>
+    <t>東澳(C0U760)</t>
+  </si>
+  <si>
+    <t>東澳嶺(C1U840)</t>
+  </si>
+  <si>
+    <t>金崙(C0S790)</t>
+  </si>
+  <si>
+    <t>桶後(C0A570)</t>
+  </si>
+  <si>
+    <t>巴陵(21C070)</t>
+  </si>
+  <si>
+    <t>池端(21U110)</t>
+  </si>
+  <si>
+    <t>德基(C1F9W0)_x000D_
+梨山(C0F860)</t>
+  </si>
+  <si>
+    <t>慈恩(C1T810)</t>
+  </si>
+  <si>
+    <t>廬山(C0I010)</t>
+  </si>
+  <si>
+    <t>阿里山(467530)</t>
+  </si>
+  <si>
+    <t>甲仙(C0V250)</t>
+  </si>
+  <si>
+    <t>向陽(C0S750)</t>
+  </si>
+  <si>
+    <t>神木村(C0H9A0)</t>
+  </si>
+  <si>
+    <t>那瑪夏國中(81V830)</t>
+  </si>
+  <si>
+    <t>加路蘭山(C0T9H0)</t>
+  </si>
+  <si>
+    <t>豐濱(C0T9I0)</t>
+  </si>
+  <si>
+    <t>松茂(81F860)_x000D_
+南山(C0U720)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆(466940)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合歡山(A0Z080)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +257,13 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -227,6 +302,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -507,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -521,7 +600,7 @@
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -531,7 +610,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -539,17 +618,23 @@
         <v>466940</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -557,8 +642,11 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -566,8 +654,11 @@
         <v>18</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -575,8 +666,11 @@
         <v>19</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -584,8 +678,11 @@
         <v>20</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -593,8 +690,11 @@
         <v>21</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -604,8 +704,11 @@
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -615,8 +718,11 @@
       <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -627,8 +733,11 @@
         <v>22</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -638,8 +747,11 @@
       <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -650,8 +762,11 @@
         <v>23</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -659,8 +774,11 @@
         <v>24</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -668,8 +786,11 @@
         <v>25</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -677,8 +798,11 @@
         <v>26</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -689,17 +813,23 @@
         <v>26</v>
       </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -707,8 +837,11 @@
         <v>467530</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -716,8 +849,11 @@
         <v>28</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -725,8 +861,11 @@
         <v>29</v>
       </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -734,8 +873,11 @@
         <v>30</v>
       </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -746,7 +888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -755,7 +897,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
